--- a/Course4.2/IISP/Book1.xlsx
+++ b/Course4.2/IISP/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danila_Samuseu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aliaksandr_Astapenk1\Documents\Work\Studieren\Course4.2\IISP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D93EDB1-49DB-4FDE-A9B6-B8FC01325E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9D63C9-0648-4AE8-8EA0-9B73F90E105A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{224296E4-B32C-4141-854B-C85FEEFD9390}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{224296E4-B32C-4141-854B-C85FEEFD9390}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="37">
   <si>
     <t>Трансформатор</t>
   </si>
@@ -131,6 +131,21 @@
   <si>
     <t>0.87/0.87</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>0.92/0.92</t>
+  </si>
+  <si>
+    <t>0.08/0.08</t>
+  </si>
+  <si>
+    <t>0.13/0.13</t>
+  </si>
+  <si>
+    <t>ВЕРХНЕЕ ЧИСЛО НА ГРАФИКЕ — ЗНАМЕНАТЕЛЬ</t>
+  </si>
 </sst>
 </file>
 
@@ -165,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -178,6 +193,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -212,7 +230,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.1650825663140882E-2"/>
+          <c:y val="6.8493150684931503E-2"/>
+          <c:w val="0.90598042581189608"/>
+          <c:h val="0.68306187753928016"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -405,7 +433,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1152461135"/>
@@ -464,7 +492,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1152479023"/>
@@ -506,7 +534,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -543,7 +571,407 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.1650825663140882E-2"/>
+          <c:y val="6.8493150684931503E-2"/>
+          <c:w val="0.90598042581189608"/>
+          <c:h val="0.68306187753928016"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$18:$S$26</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Магнитопровод</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Обмотка 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Обмотка 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Клеммы</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Каркас катушка</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Шпилька</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Гайки, шайбы</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Планка</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Изоляция</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$18:$V$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>27.631578947368425</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.94736842105263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.68421052631578</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.578947368421041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.499999999999986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.421052631578931</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.052631578947356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.68421052631578</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.999999999999986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A48-48D0-923C-C0AE30811E08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$18:$S$26</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Магнитопровод</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Обмотка 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Обмотка 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Клеммы</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Каркас катушка</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Шпилька</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Гайки, шайбы</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Планка</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Изоляция</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$18:$W$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A48-48D0-923C-C0AE30811E08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1152479023"/>
+        <c:axId val="1152461135"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1152479023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1152461135"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1152461135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1152479023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -594,6 +1022,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1110,20 +1578,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>135255</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1143,6 +2127,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>478155</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796F1711-C055-4DA2-A870-D5EB5006A63B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1448,19 +2470,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C226076-AB4B-40F4-95FF-E1A21943F9F6}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:F40"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>2</v>
@@ -1469,128 +2494,172 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>6650</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="1">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>3350</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="1">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>650</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>700</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="1">
+        <v>800</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>1950</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <v>2100</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>1700</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>1200</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
+        <v>1500</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>400</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
+        <v>450</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>50</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
+        <v>100</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>500</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
+        <v>450</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>150</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>200</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>200</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
+        <v>200</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>500</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1608,8 +2677,25 @@
       <c r="E18" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="S18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="2">
+        <v>2100</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ref="U18:U24" si="0">T18/$T$28*100</f>
+        <v>27.631578947368425</v>
+      </c>
+      <c r="V18">
+        <f>U18+V17</f>
+        <v>27.631578947368425</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1617,16 +2703,31 @@
         <v>1700</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C26" si="0">B19/$B$28*100</f>
+        <f t="shared" ref="C19:C26" si="1">B19/$B$28*100</f>
         <v>25.563909774436087</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D26" si="1">C19+D18</f>
+        <f t="shared" ref="D19:D26" si="2">C19+D18</f>
         <v>54.887218045112775</v>
       </c>
       <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="S19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T19" s="2">
+        <v>2000</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>26.315789473684209</v>
+      </c>
+      <c r="V19">
+        <f t="shared" ref="V19:V26" si="3">U19+V18</f>
+        <v>53.94736842105263</v>
+      </c>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -1634,16 +2735,31 @@
         <v>1200</v>
       </c>
       <c r="C20">
+        <f t="shared" si="1"/>
+        <v>18.045112781954884</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>72.932330827067659</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="S20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1500</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="0"/>
-        <v>18.045112781954884</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>72.932330827067659</v>
-      </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19.736842105263158</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="3"/>
+        <v>73.68421052631578</v>
+      </c>
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -1651,18 +2767,35 @@
         <v>500</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.518796992481203</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80.451127819548859</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="S21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21" s="2">
+        <v>600</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="3"/>
+        <v>81.578947368421041</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1670,16 +2803,31 @@
         <v>500</v>
       </c>
       <c r="C22">
+        <f t="shared" si="1"/>
+        <v>7.518796992481203</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>87.969924812030058</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="S22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" s="2">
+        <v>450</v>
+      </c>
+      <c r="U22">
         <f t="shared" si="0"/>
-        <v>7.518796992481203</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>87.969924812030058</v>
-      </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5.9210526315789469</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="3"/>
+        <v>87.499999999999986</v>
+      </c>
+      <c r="W22" s="4"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1687,16 +2835,31 @@
         <v>400</v>
       </c>
       <c r="C23">
+        <f t="shared" si="1"/>
+        <v>6.0150375939849621</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>93.984962406015015</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="S23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T23" s="2">
+        <v>450</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="0"/>
-        <v>6.0150375939849621</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>93.984962406015015</v>
-      </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5.9210526315789469</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="3"/>
+        <v>93.421052631578931</v>
+      </c>
+      <c r="W23" s="4"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -1704,18 +2867,35 @@
         <v>200</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.007518796992481</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96.9924812030075</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="S24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T24" s="2">
+        <v>200</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684208</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="3"/>
+        <v>96.052631578947356</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1723,16 +2903,31 @@
         <v>150</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2556390977443606</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.248120300751864</v>
       </c>
       <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="S25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T25" s="2">
+        <v>200</v>
+      </c>
+      <c r="U25">
+        <f>T25/$T$28*100</f>
+        <v>2.6315789473684208</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="3"/>
+        <v>98.68421052631578</v>
+      </c>
+      <c r="W25" s="4"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -1740,16 +2935,31 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75187969924812026</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.999999999999986</v>
       </c>
       <c r="E26" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="S26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26" s="2">
+        <v>100</v>
+      </c>
+      <c r="U26">
+        <f>T26/$T$28*100</f>
+        <v>1.3157894736842104</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="3"/>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="W26" s="4"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -1757,14 +2967,21 @@
         <f>SUM(B18:B26)</f>
         <v>6650</v>
       </c>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C37" s="2" t="s">
+      <c r="S28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T28">
+        <f>SUM(T18:T26)</f>
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1">
         <v>2</v>
@@ -1772,59 +2989,95 @@
       <c r="J37" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C38" s="2" t="s">
+      <c r="L37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C38" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
       <c r="H38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="2">
         <v>0.87</v>
       </c>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C39" s="2" t="s">
+      <c r="J38" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="5"/>
       <c r="H39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="2">
         <v>0.13</v>
       </c>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C40" s="2" t="str">
-        <f>I40 &amp; "/" &amp; (I38*I40)</f>
-        <v>0.45/0.3915</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2" t="str">
-        <f>I41 &amp; "/" &amp; ($I$38*I41)</f>
-        <v>0.55/0.4785</v>
-      </c>
-      <c r="F40" s="2"/>
+      <c r="J39" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="5"/>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C40" s="5" t="str">
+        <f>I40 &amp; "/" &amp; ROUND(I38*I40, 2)</f>
+        <v>0.45/0.39</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="str">
+        <f>I41 &amp; "/" &amp; ROUND($I$38*I41, 2)</f>
+        <v>0.55/0.48</v>
+      </c>
+      <c r="F40" s="5"/>
       <c r="H40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="2">
         <v>0.45</v>
       </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J40" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L40" s="5" t="str">
+        <f>J40 &amp; "/" &amp; ROUND(J38*J40, 2)</f>
+        <v>0.5/0.46</v>
+      </c>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5" t="str">
+        <f>J41 &amp; "/" &amp; ROUND($J$38*J41, 2)</f>
+        <v>0.5/0.46</v>
+      </c>
+      <c r="O40" s="5"/>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>23</v>
       </c>
@@ -1840,117 +3093,988 @@
       <c r="H41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C42" t="str">
+        <f>I44 &amp; "/" &amp; ROUND(I40*I44, 2)</f>
+        <v>0.35/0.16</v>
+      </c>
+      <c r="D42" t="str">
+        <f>I45 &amp; "/" &amp; ROUND(I40*I45, 2)</f>
+        <v>0.65/0.29</v>
+      </c>
+      <c r="E42" t="str">
+        <f>I46 &amp; "/" &amp; ROUND(I41*I46, 2)</f>
+        <v>0.4/0.22</v>
+      </c>
+      <c r="F42" t="str">
+        <f>I47 &amp; "/" &amp; ROUND(I41*I47, 2)</f>
+        <v>0.6/0.33</v>
+      </c>
       <c r="H42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="2">
         <v>0.4</v>
       </c>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J42" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="L42" t="str">
+        <f>J44 &amp; "/" &amp; ROUND(J40*J44, 2)</f>
+        <v>0.4/0.2</v>
+      </c>
+      <c r="M42" t="str">
+        <f>J45 &amp; "/" &amp; ROUND(J40*J45, 2)</f>
+        <v>0.6/0.3</v>
+      </c>
+      <c r="N42" t="str">
+        <f>J46 &amp; "/" &amp; ROUND(J41*J46, 2)</f>
+        <v>0.45/0.23</v>
+      </c>
+      <c r="O42" t="str">
+        <f>J47 &amp; "/" &amp; ROUND(J41*J47, 2)</f>
+        <v>0.55/0.28</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>32</v>
+      </c>
       <c r="H43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="2">
         <v>0.6</v>
       </c>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J43" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
       <c r="H44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="2">
         <v>0.35</v>
       </c>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J44" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
       <c r="H45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="2">
         <v>0.65</v>
       </c>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J45" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="5"/>
       <c r="H46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="2">
         <v>0.4</v>
       </c>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J46" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O46" s="5"/>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C47" s="5" t="str">
+        <f>I42 &amp; "/" &amp; ROUND(I39*I42, 2)</f>
+        <v>0.4/0.05</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5" t="str">
+        <f>I43 &amp; "/" &amp; ROUND($I$39*I43, 2)</f>
+        <v>0.6/0.08</v>
+      </c>
+      <c r="F47" s="5"/>
       <c r="H47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="2">
         <v>0.6</v>
       </c>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J47" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L47" s="5" t="str">
+        <f>J42 &amp; "/" &amp; ROUND(J39*J42, 2)</f>
+        <v>0.45/0.04</v>
+      </c>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5" t="str">
+        <f>J43 &amp; "/" &amp; ROUND($I$39*J43, 2)</f>
+        <v>0.55/0.07</v>
+      </c>
+      <c r="O47" s="5"/>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" t="s">
+        <v>30</v>
+      </c>
       <c r="H48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="2">
         <v>0.5</v>
       </c>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="J48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L48" t="s">
+        <v>27</v>
+      </c>
+      <c r="M48" t="s">
+        <v>28</v>
+      </c>
+      <c r="N48" t="s">
+        <v>29</v>
+      </c>
+      <c r="O48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C49" t="str">
+        <f>I48 &amp; "/" &amp; ROUND(I42*I48, 2)</f>
+        <v>0.5/0.2</v>
+      </c>
+      <c r="D49" t="str">
+        <f>I49 &amp; "/" &amp; ROUND(I42*I49, 2)</f>
+        <v>0.5/0.2</v>
+      </c>
+      <c r="E49" t="str">
+        <f>I50 &amp; "/" &amp; ROUND(I43*I50, 2)</f>
+        <v>0.4/0.24</v>
+      </c>
+      <c r="F49" t="str">
+        <f>I51 &amp; "/" &amp; ROUND(I43*I51, 2)</f>
+        <v>0.6/0.36</v>
+      </c>
       <c r="H49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="2">
         <v>0.5</v>
       </c>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="J49" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L49" t="str">
+        <f>J48 &amp; "/" &amp; ROUND(J42*J48, 2)</f>
+        <v>0.5/0.23</v>
+      </c>
+      <c r="M49" t="str">
+        <f>J49 &amp; "/" &amp; ROUND(J42*J49, 2)</f>
+        <v>0.5/0.23</v>
+      </c>
+      <c r="N49" t="str">
+        <f>J50 &amp; "/" &amp; ROUND(J43*J50, 2)</f>
+        <v>0.4/0.22</v>
+      </c>
+      <c r="O49" t="str">
+        <f>J51 &amp; "/" &amp; ROUND(J43*J51, 2)</f>
+        <v>0.6/0.33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="2">
         <v>0.4</v>
       </c>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="J50" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H51" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="2">
         <v>0.6</v>
       </c>
-      <c r="J51" s="1"/>
+      <c r="J51" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2">
+        <v>6650</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="E54">
+        <f>B54*D54</f>
+        <v>5785.5</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>7600</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="K54">
+        <f>H54*J54</f>
+        <v>6992</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>6650</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="E55">
+        <f>B55*D55</f>
+        <v>864.5</v>
+      </c>
+      <c r="H55" s="2">
+        <v>7600</v>
+      </c>
+      <c r="I55" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="K55">
+        <f t="shared" ref="K55:K71" si="4">H55*J55</f>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2">
+        <v>3350</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ref="E56:E71" si="5">B56*D56</f>
+        <v>1507.5</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2">
+        <v>4050</v>
+      </c>
+      <c r="I56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="4"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <v>3350</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="5"/>
+        <v>1842.5000000000002</v>
+      </c>
+      <c r="H57" s="2">
+        <v>4050</v>
+      </c>
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="4"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="2">
+        <v>650</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="5"/>
+        <v>260</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="2">
+        <v>650</v>
+      </c>
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="4"/>
+        <v>292.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="2">
+        <v>700</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="5"/>
+        <v>420</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="2">
+        <v>800</v>
+      </c>
+      <c r="I59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="4"/>
+        <v>440.00000000000006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="5"/>
+        <v>682.5</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" s="2">
+        <v>2100</v>
+      </c>
+      <c r="I60" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="4"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="5"/>
+        <v>1267.5</v>
+      </c>
+      <c r="H61" s="2">
+        <v>2100</v>
+      </c>
+      <c r="I61" t="s">
+        <v>24</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="4"/>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1700</v>
+      </c>
+      <c r="C62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="5"/>
+        <v>1105</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I62" t="s">
+        <v>24</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B63" s="2">
+        <v>1700</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="5"/>
+        <v>680</v>
+      </c>
+      <c r="H63" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I63" t="s">
+        <v>25</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="5"/>
+        <v>780</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I64" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="5"/>
+        <v>720</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I65" t="s">
+        <v>26</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="4"/>
+        <v>825.00000000000011</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="2">
+        <v>400</v>
+      </c>
+      <c r="C66" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="2">
+        <v>450</v>
+      </c>
+      <c r="I66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="2">
+        <v>50</v>
+      </c>
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="2">
+        <v>100</v>
+      </c>
+      <c r="I67" t="s">
+        <v>28</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="2">
+        <v>500</v>
+      </c>
+      <c r="C68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="2">
+        <v>450</v>
+      </c>
+      <c r="I68" t="s">
+        <v>27</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="2">
+        <v>150</v>
+      </c>
+      <c r="C69" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" s="2">
+        <v>200</v>
+      </c>
+      <c r="I69" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="2">
+        <v>200</v>
+      </c>
+      <c r="C70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="2">
+        <v>200</v>
+      </c>
+      <c r="I70" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="2">
+        <v>500</v>
+      </c>
+      <c r="C71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="2">
+        <v>600</v>
+      </c>
+      <c r="I71" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74">
+        <f>E60/E54</f>
+        <v>0.11796733212341198</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75">
+        <f>SUM(E61,E62,E64)/E54</f>
+        <v>0.54489672457004579</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76">
+        <f>SUM(E65)/E54</f>
+        <v>0.1244490536686544</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C79" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C80" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:C26">
-    <sortCondition descending="1" ref="B26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S18:V26">
+    <sortCondition descending="1" ref="T18:T26"/>
   </sortState>
-  <mergeCells count="9">
+  <mergeCells count="30">
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W21:W23"/>
+    <mergeCell ref="W24:W26"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="E21:E23"/>
     <mergeCell ref="E24:E26"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Course4.2/IISP/Book1.xlsx
+++ b/Course4.2/IISP/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aliaksandr_Astapenk1\Documents\Work\Studieren\Course4.2\IISP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9D63C9-0648-4AE8-8EA0-9B73F90E105A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA392DBA-7977-4564-8EC1-53B09E9585E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{224296E4-B32C-4141-854B-C85FEEFD9390}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="38">
   <si>
     <t>Трансформатор</t>
   </si>
@@ -146,6 +146,9 @@
   <si>
     <t>ВЕРХНЕЕ ЧИСЛО НА ГРАФИКЕ — ЗНАМЕНАТЕЛЬ</t>
   </si>
+  <si>
+    <t>Из рисунка видно значительное превышение затрат (0.54 и 0.48) по функции F112 над относительной важностью функции (0.29 и 0.3). Именно эту функцию и её МНF должны быть подвергнуты наиболее тщательному и в первую очередь анализу</t>
+  </si>
 </sst>
 </file>
 
@@ -188,14 +191,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,6 +985,721 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$74:$I$81</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>F111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F212</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>F221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>F222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$74:$J$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.12013729977116705</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4805491990846682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12871853546910755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11799199084668194</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6481693363844397E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4359267734553777E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5766590389016017E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8615560640732266E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C833-402A-919A-1C0D324A6688}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$74:$I$81</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>F111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F212</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>F221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>F222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$74:$K$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C833-402A-919A-1C0D324A6688}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="418776431"/>
+        <c:axId val="418777263"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="418776431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418777263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="418777263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418776431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$74:$C$81</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>F111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F212</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>F221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>F222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$74:$D$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.11796733212341198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54489672457004579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11753521735372915</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1244490536686544</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6174920058767612E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4569181574626222E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8396854204476709E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1483017889551464E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1973-46D3-BB93-BF78E8473908}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$74:$C$81</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>F111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F212</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>F221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>F222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$74:$E$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1973-46D3-BB93-BF78E8473908}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="337426223"/>
+        <c:axId val="337423727"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="337426223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337423727"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="337423727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337426223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1062,6 +1780,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1741,6 +2539,1012 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2165,6 +3969,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{684195C4-6349-4CCE-AF81-21492B195D32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC4801A4-937E-470D-B0C5-541271A52B65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2470,10 +4346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C226076-AB4B-40F4-95FF-E1A21943F9F6}">
-  <dimension ref="A1:W81"/>
+  <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="M76" sqref="M76"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2674,7 +4550,7 @@
         <f>C18+D17</f>
         <v>29.323308270676691</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="S18" s="2" t="s">
@@ -2691,7 +4567,7 @@
         <f>U18+V17</f>
         <v>27.631578947368425</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="W18" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2710,7 +4586,7 @@
         <f t="shared" ref="D19:D26" si="2">C19+D18</f>
         <v>54.887218045112775</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="5"/>
       <c r="S19" s="2" t="s">
         <v>5</v>
       </c>
@@ -2725,7 +4601,7 @@
         <f t="shared" ref="V19:V26" si="3">U19+V18</f>
         <v>53.94736842105263</v>
       </c>
-      <c r="W19" s="3"/>
+      <c r="W19" s="4"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2742,7 +4618,7 @@
         <f t="shared" si="2"/>
         <v>72.932330827067659</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="5"/>
       <c r="S20" s="2" t="s">
         <v>6</v>
       </c>
@@ -2757,7 +4633,7 @@
         <f t="shared" si="3"/>
         <v>73.68421052631578</v>
       </c>
-      <c r="W20" s="3"/>
+      <c r="W20" s="4"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -2774,7 +4650,7 @@
         <f t="shared" si="2"/>
         <v>80.451127819548859</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="S21" s="2" t="s">
@@ -2791,7 +4667,7 @@
         <f t="shared" si="3"/>
         <v>81.578947368421041</v>
       </c>
-      <c r="W21" s="4" t="s">
+      <c r="W21" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2810,7 +4686,7 @@
         <f t="shared" si="2"/>
         <v>87.969924812030058</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="5"/>
       <c r="S22" s="2" t="s">
         <v>7</v>
       </c>
@@ -2825,7 +4701,7 @@
         <f t="shared" si="3"/>
         <v>87.499999999999986</v>
       </c>
-      <c r="W22" s="4"/>
+      <c r="W22" s="5"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2842,7 +4718,7 @@
         <f t="shared" si="2"/>
         <v>93.984962406015015</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="5"/>
       <c r="S23" s="2" t="s">
         <v>9</v>
       </c>
@@ -2857,7 +4733,7 @@
         <f t="shared" si="3"/>
         <v>93.421052631578931</v>
       </c>
-      <c r="W23" s="4"/>
+      <c r="W23" s="5"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -2874,7 +4750,7 @@
         <f t="shared" si="2"/>
         <v>96.9924812030075</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="S24" s="2" t="s">
@@ -2891,7 +4767,7 @@
         <f t="shared" si="3"/>
         <v>96.052631578947356</v>
       </c>
-      <c r="W24" s="4" t="s">
+      <c r="W24" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2910,7 +4786,7 @@
         <f t="shared" si="2"/>
         <v>99.248120300751864</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="5"/>
       <c r="S25" s="2" t="s">
         <v>11</v>
       </c>
@@ -2925,7 +4801,7 @@
         <f t="shared" si="3"/>
         <v>98.68421052631578</v>
       </c>
-      <c r="W25" s="4"/>
+      <c r="W25" s="5"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -2942,7 +4818,7 @@
         <f t="shared" si="2"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="5"/>
       <c r="S26" s="2" t="s">
         <v>8</v>
       </c>
@@ -2957,7 +4833,7 @@
         <f t="shared" si="3"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="W26" s="4"/>
+      <c r="W26" s="5"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -2976,12 +4852,12 @@
       </c>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1">
         <v>2</v>
@@ -2989,20 +4865,20 @@
       <c r="J37" s="1">
         <v>4</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="L37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
       <c r="H38" s="1" t="s">
         <v>17</v>
       </c>
@@ -3012,22 +4888,22 @@
       <c r="J38" s="2">
         <v>0.92</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5" t="s">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="5"/>
+      <c r="F39" s="3"/>
       <c r="H39" s="1" t="s">
         <v>18</v>
       </c>
@@ -3037,26 +4913,26 @@
       <c r="J39" s="2">
         <v>0.08</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5" t="s">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O39" s="5"/>
+      <c r="O39" s="3"/>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C40" s="5" t="str">
+      <c r="C40" s="3" t="str">
         <f>I40 &amp; "/" &amp; ROUND(I38*I40, 2)</f>
         <v>0.45/0.39</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5" t="str">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="str">
         <f>I41 &amp; "/" &amp; ROUND($I$38*I41, 2)</f>
         <v>0.55/0.48</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="3"/>
       <c r="H40" s="1" t="s">
         <v>19</v>
       </c>
@@ -3066,16 +4942,16 @@
       <c r="J40" s="2">
         <v>0.5</v>
       </c>
-      <c r="L40" s="5" t="str">
+      <c r="L40" s="3" t="str">
         <f>J40 &amp; "/" &amp; ROUND(J38*J40, 2)</f>
         <v>0.5/0.46</v>
       </c>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5" t="str">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3" t="str">
         <f>J41 &amp; "/" &amp; ROUND($J$38*J41, 2)</f>
         <v>0.5/0.46</v>
       </c>
-      <c r="O40" s="5"/>
+      <c r="O40" s="3"/>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
@@ -3173,12 +5049,12 @@
       </c>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
       <c r="H44" s="1" t="s">
         <v>23</v>
       </c>
@@ -3188,20 +5064,20 @@
       <c r="J44" s="2">
         <v>0.4</v>
       </c>
-      <c r="L44" s="5" t="s">
+      <c r="L44" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
       <c r="H45" s="1" t="s">
         <v>24</v>
       </c>
@@ -3211,22 +5087,22 @@
       <c r="J45" s="2">
         <v>0.6</v>
       </c>
-      <c r="L45" s="5" t="s">
+      <c r="L45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5" t="s">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="5"/>
+      <c r="F46" s="3"/>
       <c r="H46" s="1" t="s">
         <v>25</v>
       </c>
@@ -3236,26 +5112,26 @@
       <c r="J46" s="2">
         <v>0.45</v>
       </c>
-      <c r="L46" s="5" t="s">
+      <c r="L46" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5" t="s">
+      <c r="M46" s="3"/>
+      <c r="N46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O46" s="5"/>
+      <c r="O46" s="3"/>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C47" s="5" t="str">
+      <c r="C47" s="3" t="str">
         <f>I42 &amp; "/" &amp; ROUND(I39*I42, 2)</f>
         <v>0.4/0.05</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5" t="str">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="str">
         <f>I43 &amp; "/" &amp; ROUND($I$39*I43, 2)</f>
         <v>0.6/0.08</v>
       </c>
-      <c r="F47" s="5"/>
+      <c r="F47" s="3"/>
       <c r="H47" s="1" t="s">
         <v>26</v>
       </c>
@@ -3265,16 +5141,16 @@
       <c r="J47" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L47" s="5" t="str">
+      <c r="L47" s="3" t="str">
         <f>J42 &amp; "/" &amp; ROUND(J39*J42, 2)</f>
         <v>0.45/0.04</v>
       </c>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5" t="str">
+      <c r="M47" s="3"/>
+      <c r="N47" s="3" t="str">
         <f>J43 &amp; "/" &amp; ROUND($I$39*J43, 2)</f>
         <v>0.55/0.07</v>
       </c>
-      <c r="O47" s="5"/>
+      <c r="O47" s="3"/>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
@@ -3966,8 +5842,18 @@
         <f>E60/E54</f>
         <v>0.11796733212341198</v>
       </c>
+      <c r="E74">
+        <v>0.16</v>
+      </c>
       <c r="I74" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="J74">
+        <f>K60/K54</f>
+        <v>0.12013729977116705</v>
+      </c>
+      <c r="K74">
+        <v>0.2</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3978,8 +5864,18 @@
         <f>SUM(E61,E62,E64)/E54</f>
         <v>0.54489672457004579</v>
       </c>
+      <c r="E75">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="I75" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="J75">
+        <f>SUM(K61,K62,K64)/K54</f>
+        <v>0.4805491990846682</v>
+      </c>
+      <c r="K75">
+        <v>0.3</v>
       </c>
       <c r="M75" t="s">
         <v>36</v>
@@ -3990,51 +5886,136 @@
         <v>25</v>
       </c>
       <c r="D76">
-        <f>SUM(E65)/E54</f>
-        <v>0.1244490536686544</v>
+        <f>SUM(E63)/E54</f>
+        <v>0.11753521735372915</v>
+      </c>
+      <c r="E76">
+        <v>0.22</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="J76">
+        <f>SUM(K63)/K54</f>
+        <v>0.12871853546910755</v>
+      </c>
+      <c r="K76">
+        <v>0.23</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C77" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="D77">
+        <f>SUM(E65)/E54</f>
+        <v>0.1244490536686544</v>
+      </c>
+      <c r="E77">
+        <v>0.33</v>
+      </c>
       <c r="I77" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="J77">
+        <f>SUM(K65)/K54</f>
+        <v>0.11799199084668194</v>
+      </c>
+      <c r="K77">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C78" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="D78">
+        <f>SUM(E68,E69)/E54</f>
+        <v>5.6174920058767612E-2</v>
+      </c>
+      <c r="E78">
+        <v>0.2</v>
+      </c>
       <c r="I78" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="J78">
+        <f>SUM(K68,K69)/K54</f>
+        <v>4.6481693363844397E-2</v>
+      </c>
+      <c r="K78">
+        <v>0.23</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C79" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="D79">
+        <f>SUM(E67)/E54</f>
+        <v>3.4569181574626222E-3</v>
+      </c>
+      <c r="E79">
+        <v>0.2</v>
+      </c>
       <c r="I79" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="J79">
+        <f>SUM(K67)/K54</f>
+        <v>6.4359267734553777E-3</v>
+      </c>
+      <c r="K79">
+        <v>0.23</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C80" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="D80">
+        <f>SUM(E70,E71)/E54</f>
+        <v>4.8396854204476709E-2</v>
+      </c>
+      <c r="E80">
+        <v>0.24</v>
+      </c>
       <c r="I80" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J80">
+        <f>SUM(K70,K71)/K54</f>
+        <v>4.5766590389016017E-2</v>
+      </c>
+      <c r="K80">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C81" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="D81">
+        <f>SUM(E66)/E54</f>
+        <v>4.1483017889551464E-2</v>
+      </c>
+      <c r="E81">
+        <v>0.36</v>
+      </c>
       <c r="I81" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="J81">
+        <f>SUM(K66)/K54</f>
+        <v>3.8615560640732266E-2</v>
+      </c>
+      <c r="K81">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
